--- a/bug_report.xlsx
+++ b/bug_report.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Desktop\MN_Translation\Mystic-Nights-Translation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3356A9-7B9A-4DF5-953D-41C4123CD3D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Liq Alloy</t>
   </si>
@@ -364,12 +370,18 @@
   </si>
   <si>
     <t xml:space="preserve">B1 Control Key </t>
+  </si>
+  <si>
+    <t>BROKEN (1,2)</t>
+  </si>
+  <si>
+    <t>Flickers in and out of view in Menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +408,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -412,9 +442,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -426,17 +460,20 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C114" totalsRowShown="0">
-  <autoFilter ref="A1:C114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C114" totalsRowShown="0">
+  <autoFilter ref="A1:C114" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="ITEM NAME"/>
-    <tableColumn id="2" name="PROBLEM"/>
-    <tableColumn id="3" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ITEM NAME"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROBLEM"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -485,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,9 +555,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,6 +607,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -728,20 +799,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -752,567 +823,575 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -1326,24 +1405,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bug_report.xlsx
+++ b/bug_report.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Desktop\MN_Translation\Mystic-Nights-Translation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3356A9-7B9A-4DF5-953D-41C4123CD3D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23655" windowHeight="15240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Liq Alloy</t>
   </si>
@@ -69,63 +63,21 @@
     <t xml:space="preserve">Serum </t>
   </si>
   <si>
-    <t xml:space="preserve">Light Vest </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy Vest </t>
-  </si>
-  <si>
     <t>Strong Vest</t>
   </si>
   <si>
     <t xml:space="preserve">Blade   </t>
   </si>
   <si>
-    <t xml:space="preserve">Vampire Blade    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancient Blade    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaiser Blade   </t>
-  </si>
-  <si>
     <t>Pistol</t>
   </si>
   <si>
-    <t xml:space="preserve">Vampire Pistol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancient Pistol </t>
-  </si>
-  <si>
-    <t>Kaiser Pistol</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rifle </t>
   </si>
   <si>
-    <t xml:space="preserve">Vampire Rifle  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancient Rifle  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaiser Rifle </t>
-  </si>
-  <si>
     <t>Shot</t>
   </si>
   <si>
-    <t xml:space="preserve">Vampire Shot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancient Shot </t>
-  </si>
-  <si>
-    <t>Kaiser Shot</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rifle Mag  </t>
   </si>
   <si>
@@ -324,9 +276,6 @@
     <t xml:space="preserve">Data Stick B2 </t>
   </si>
   <si>
-    <t xml:space="preserve">Data Stick B3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Data Stick B4 </t>
   </si>
   <si>
@@ -372,16 +321,58 @@
     <t xml:space="preserve">B1 Control Key </t>
   </si>
   <si>
-    <t>BROKEN (1,2)</t>
-  </si>
-  <si>
-    <t>Flickers in and out of view in Menu</t>
+    <t>Data Stick B3</t>
+  </si>
+  <si>
+    <t>Normal vest</t>
+  </si>
+  <si>
+    <t>Sturdy Vest</t>
+  </si>
+  <si>
+    <t>Butcher</t>
+  </si>
+  <si>
+    <t>Slayer</t>
+  </si>
+  <si>
+    <t>Reaper</t>
+  </si>
+  <si>
+    <t>Cobra</t>
+  </si>
+  <si>
+    <t>Viper</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>Silent Star</t>
+  </si>
+  <si>
+    <t>Red Rum</t>
+  </si>
+  <si>
+    <t>Black Widow</t>
+  </si>
+  <si>
+    <t>Avarice</t>
+  </si>
+  <si>
+    <t>Malice</t>
+  </si>
+  <si>
+    <t>Envy</t>
+  </si>
+  <si>
+    <t>MUST FIX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,30 +401,23 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -442,19 +426,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -468,12 +459,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C114" totalsRowShown="0">
-  <autoFilter ref="A1:C114" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ITEM NAME"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROBLEM"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D114" totalsRowShown="0">
+  <autoFilter ref="A1:D114"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="ITEM NAME" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="PROBLEM"/>
+    <tableColumn id="3" name="Column1"/>
+    <tableColumn id="4" name="MUST FIX" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -522,7 +514,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,26 +547,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,23 +582,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -799,630 +757,742 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="33.3046875" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>108</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>109</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>85</v>
+      </c>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>101</v>
+      </c>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>87</v>
+      </c>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A100" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A111" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>107</v>
-      </c>
+      <c r="D114" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bug_report.xlsx
+++ b/bug_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
   <si>
     <t>Liq Alloy</t>
   </si>
@@ -315,9 +315,6 @@
     <t>Decree</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t xml:space="preserve">B1 Control Key </t>
   </si>
   <si>
@@ -366,14 +363,32 @@
     <t>Envy</t>
   </si>
   <si>
-    <t>MUST FIX</t>
+    <t xml:space="preserve">BROKEN </t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Letter for Greg</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>CHANGES</t>
+  </si>
+  <si>
+    <t>NEED TO CHECK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,8 +403,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,8 +438,23 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -421,31 +473,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -464,8 +532,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="ITEM NAME" dataCellStyle="Normal"/>
     <tableColumn id="2" name="PROBLEM"/>
-    <tableColumn id="3" name="Column1"/>
-    <tableColumn id="4" name="MUST FIX" dataDxfId="0"/>
+    <tableColumn id="3" name="STATUS"/>
+    <tableColumn id="4" name="CHANGES"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -758,19 +826,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -778,692 +848,636 @@
         <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C34" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    </row>
+    <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    </row>
+    <row r="70" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>58</v>
       </c>
-      <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>59</v>
       </c>
-      <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>65</v>
       </c>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>67</v>
       </c>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>68</v>
       </c>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>69</v>
       </c>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>72</v>
       </c>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>73</v>
       </c>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>74</v>
       </c>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>75</v>
       </c>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>95</v>
       </c>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>96</v>
       </c>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    </row>
+    <row r="104" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>101</v>
-      </c>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>86</v>
       </c>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>87</v>
       </c>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>88</v>
       </c>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D111" s="3"/>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>90</v>
       </c>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    </row>
+    <row r="113" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>92</v>
       </c>
-      <c r="D114" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bug_report.xlsx
+++ b/bug_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="136">
   <si>
     <t>Liq Alloy</t>
   </si>
@@ -171,9 +171,6 @@
     <t xml:space="preserve">Data Stick 3 </t>
   </si>
   <si>
-    <t>Military Strategy Letter</t>
-  </si>
-  <si>
     <t xml:space="preserve">Metal Hexagon </t>
   </si>
   <si>
@@ -363,25 +360,70 @@
     <t>Envy</t>
   </si>
   <si>
-    <t xml:space="preserve">BROKEN </t>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Letter for Greg</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>CHANGES</t>
+  </si>
+  <si>
+    <t>BROKEN</t>
+  </si>
+  <si>
+    <t>BROKEN (2)</t>
+  </si>
+  <si>
+    <t>BROKEN (1)</t>
+  </si>
+  <si>
+    <t>OFF (2 ,3)</t>
+  </si>
+  <si>
+    <t>BROKEN(1)</t>
+  </si>
+  <si>
+    <t>BROKEN(1,3,5)</t>
+  </si>
+  <si>
+    <t>RESPAWN</t>
+  </si>
+  <si>
+    <t>AESTHETIC</t>
+  </si>
+  <si>
+    <t>BROKEN(2)</t>
+  </si>
+  <si>
+    <t>OFF(2)</t>
   </si>
   <si>
     <t>FIXED</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Letter for Greg</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>CHANGES</t>
-  </si>
-  <si>
-    <t>NEED TO CHECK</t>
+    <t>NOT FOUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF </t>
+  </si>
+  <si>
+    <t>RENAMED</t>
+  </si>
+  <si>
+    <t>Cylinder A</t>
+  </si>
+  <si>
+    <t>Cylinder B</t>
+  </si>
+  <si>
+    <t>Cylinder C</t>
+  </si>
+  <si>
+    <t>Cylinder D</t>
   </si>
 </sst>
 </file>
@@ -426,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -496,7 +544,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -504,7 +552,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -826,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,16 +892,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,12 +931,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -900,18 +950,18 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,17 +971,17 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -940,38 +990,38 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>109</v>
+      <c r="A19" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -1009,94 +1059,82 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>36</v>
       </c>
@@ -1153,332 +1191,477 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B65" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="5" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="C72" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C77" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" t="s">
-        <v>115</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    </row>
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
+    <row r="114" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B113" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>92</v>
-      </c>
-    </row>
+      <c r="B114" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bug_report.xlsx
+++ b/bug_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
   <si>
     <t>Liq Alloy</t>
   </si>
@@ -213,18 +213,6 @@
     <t xml:space="preserve">Data Stick S4 </t>
   </si>
   <si>
-    <t xml:space="preserve">Power Cylinder A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Cylinder B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Cylinder C  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Cylinder D  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Data Stick 9 </t>
   </si>
   <si>
@@ -360,9 +348,6 @@
     <t>Envy</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
     <t>Letter for Greg</t>
   </si>
   <si>
@@ -375,62 +360,29 @@
     <t>BROKEN</t>
   </si>
   <si>
-    <t>BROKEN (2)</t>
-  </si>
-  <si>
-    <t>BROKEN (1)</t>
-  </si>
-  <si>
-    <t>OFF (2 ,3)</t>
-  </si>
-  <si>
-    <t>BROKEN(1)</t>
-  </si>
-  <si>
-    <t>BROKEN(1,3,5)</t>
-  </si>
-  <si>
-    <t>RESPAWN</t>
-  </si>
-  <si>
-    <t>AESTHETIC</t>
-  </si>
-  <si>
-    <t>BROKEN(2)</t>
-  </si>
-  <si>
-    <t>OFF(2)</t>
+    <t>NOT FOUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cylinder A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cylinder B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cylinder C  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cylinder D  </t>
   </si>
   <si>
     <t>FIXED</t>
-  </si>
-  <si>
-    <t>NOT FOUND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF </t>
-  </si>
-  <si>
-    <t>RENAMED</t>
-  </si>
-  <si>
-    <t>Cylinder A</t>
-  </si>
-  <si>
-    <t>Cylinder B</t>
-  </si>
-  <si>
-    <t>Cylinder C</t>
-  </si>
-  <si>
-    <t>Cylinder D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,13 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -468,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,18 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -537,30 +471,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -878,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,16 +821,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,12 +860,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,17 +880,17 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>104</v>
+      <c r="A13" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,37 +900,37 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>106</v>
+      <c r="A16" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>107</v>
+      <c r="A17" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>109</v>
+      <c r="A20" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>110</v>
+      <c r="A21" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -1010,18 +939,18 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>111</v>
+      <c r="A23" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>113</v>
+      <c r="A25" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -1116,7 +1045,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -1202,19 +1131,19 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1223,340 +1152,190 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B71" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B73" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B75" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B81" t="s">
-        <v>124</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B82" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+    </row>
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B84" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+    </row>
+    <row r="89" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B85" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+    </row>
+    <row r="90" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B88" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
+      <c r="B97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B95" t="s">
-        <v>126</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" t="s">
-        <v>125</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1566,99 +1345,81 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B101" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>128</v>
+      <c r="A101" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>128</v>
+      <c r="A102" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B103" t="s">
-        <v>122</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>128</v>
+      <c r="A103" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>91</v>
+      <c r="A114" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
